--- a/biology/Zoologie/Fringilla/Fringilla.xlsx
+++ b/biology/Zoologie/Fringilla/Fringilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit par le naturaliste suédois Carl Von Linné[1] en 1758, le genre Fringilla comprend huit[2] espèces de pinsons. C'est le seul genre de la sous-famille des Fringillinae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit par le naturaliste suédois Carl Von Linné en 1758, le genre Fringilla comprend huit espèces de pinsons. C'est le seul genre de la sous-famille des Fringillinae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre présentent une silhouette élancée et une queue relativement longue.
 Les mâles arborent un plumage aux pigments bleu, noir, brun et rosé tandis que les femelles ont un plumage olivâtre non strié d'où un dimorphisme sexuel très marqué. Les jeunes ressemblent aux femelles et ne présentent donc pas un plumage strié contrairement à la plupart des Carduelinae.
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification de référence du Congrès ornithologique international  (version 14.1, 2024)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification de référence du Congrès ornithologique international  (version 14.1, 2024) :
 </t>
         </is>
       </c>
